--- a/MEAN Stack - Akash Kale - 2022 Year.xlsx
+++ b/MEAN Stack - Akash Kale - 2022 Year.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18624" windowHeight="7368"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18624" windowHeight="7368" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -9648,8 +9648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B599"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10394,8 +10394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D560"/>
   <sheetViews>
-    <sheetView topLeftCell="A540" workbookViewId="0">
-      <selection activeCell="D540" sqref="D540"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12751,7 +12751,7 @@
         <v>576</v>
       </c>
       <c r="C284" s="3">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="D284" s="2">
         <v>13</v>
